--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects/</t>
+          <t>http://purl.org/m4m19/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,12 +457,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>http://purl.org/m4m19/subjects/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -487,17 +499,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nicest-2-subjects</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects/</t>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -524,17 +536,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
+          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -561,17 +573,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -593,24 +605,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>NICEST-2 controlled vocabulary of subjects</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
-        </is>
-      </c>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -630,11 +638,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>dct:description</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Subjects ...</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -655,17 +671,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NICEST-2 controlled vocabulary of subjects</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -688,17 +704,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subjects ...</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -721,17 +737,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -754,17 +770,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -787,17 +803,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Date of the last vocabulary update</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -820,27 +836,59 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -853,20 +901,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>nicest-2-subjects:TestTerm</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>TestTerm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Some test term</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -886,7 +934,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
+          <t>nicest-2-subjects:</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -911,59 +959,19 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>nicest-2-subjects:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -976,20 +984,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:TestTerm</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TestTerm</t>
-        </is>
-      </c>
+          <t>nicest-2-subjects:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Some test term</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1806,81 +1806,6 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -432,11 +432,7 @@
           <t>http://purl.org/m4m19/subjects</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
-        </is>
-      </c>
+      <c r="C1" t="inlineStr"/>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -470,11 +466,7 @@
           <t>http://purl.org/m4m19/subjects/</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -507,11 +499,7 @@
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -544,11 +532,7 @@
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -581,11 +565,7 @@
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -605,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -613,11 +593,7 @@
           <t>NICEST-2 controlled vocabulary of subjects</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -646,11 +622,7 @@
           <t>Subjects ...</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -679,11 +651,7 @@
           <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -712,11 +680,7 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -745,11 +709,7 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -778,11 +738,7 @@
           <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -811,11 +767,7 @@
           <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Date of the last vocabulary update</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,12 +614,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subjects ...</t>
+          <t>NICEST-2 controlled vocabulary of subjects</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -643,12 +643,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>Subjects ...</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -672,12 +672,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -701,12 +701,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -730,12 +730,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -759,7 +759,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -788,59 +788,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -853,27 +817,59 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:TestTerm</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TestTerm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Some test term</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -886,12 +882,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>nicest-2-subjects:TestTerm</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>TestTerm</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Some test term</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1758,6 +1762,31 @@
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>nicest-2-subjects:</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:AF122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects</t>
+          <t>http://purl.org/zonmw/generic</t>
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
@@ -449,6 +449,19 @@
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -458,12 +471,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nicest-2-subjects</t>
+          <t>gen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects/</t>
+          <t>http://purl.org/zonmw/generic/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -482,6 +495,19 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -491,12 +517,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>skos</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t>http://purl.org/pav/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -515,6 +541,19 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
+          <t>http://purl.org/dc/terms/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -548,6 +587,19 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,12 +609,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>owl</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+          <t>http://www.w3.org/2002/07/owl#</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -581,19 +633,36 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NICEST-2 controlled vocabulary of subjects</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>xsd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -610,19 +679,36 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NICEST-2 controlled vocabulary of subjects</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>iop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -639,16 +725,29 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>skos:prefLabel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Subjects ...</t>
+          <t>ZonMW Generic Vocabulary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -668,16 +767,29 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
+          <t>ZonMW Generic Vocabulary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -697,16 +809,29 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>Controlled vocabulary of generic terms used in ZonMV project content metadata templates</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -726,16 +851,29 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://orcid.org/0000-0003-2195-3997</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -755,16 +893,29 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>https://orcid.org/0000-0002-7160-5942</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -784,16 +935,29 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:contributor</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -813,63 +977,40 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -878,24 +1019,33 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:TestTerm</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TestTerm</t>
+          <t>1.1.0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Some test term</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -911,14 +1061,31 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>pav:createdOn</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2021-07-09T11:00:00+00:00</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -936,14 +1103,31 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
+          <t>pav:lastUpdatedOn</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2021-08-13T22:00:00+00:00</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -961,47 +1145,165 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@nl</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>skos:definition@nl</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>skos:relatedMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>dct:isReplacedBy</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
+          <t>gen:10000</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>deprecated</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms which are deprecated.</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1011,17 +1313,38 @@
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>gen:10001</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>focus area</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>ZonMw specific focus areas</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1036,14 +1359,31 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>gen:10002</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1061,14 +1401,31 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>gen:10003</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>temporal scope</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1086,14 +1443,31 @@
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>gen:10004</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>population group</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1111,14 +1485,31 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>gen:10005</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1136,20 +1527,45 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
+          <t>gen:10006</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Other forms of resources that are not easily categorized or defined</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1161,14 +1577,31 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>gen:10007</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>biomaterial</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1186,22 +1619,55 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>organism</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A material entity that is an individual living system, such as animal, plant, bacteria or virus, that is capable of replicating or reproducing, growth and maintenance in the right environment. An organism may be unicellular or made up, like humans, of many billions of cells divided into specialized tissues and organs.</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0100026</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
@@ -1211,22 +1677,56 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
+          <t>gen:10009</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>specimen</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A part of a thing, or of several things, taken to demonstrate or to determine the character of the whole, e.g. a substance, or portion of material obtained for use in testing, examination, or study; particularly, a preparation of tissue or bodily fluid taken for examination or diagnosis.</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C19157,
+http://purl.bioontology.org/ontology/SNOMEDCT/123038009</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1236,20 +1736,49 @@
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
+          <t>gen:10010</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>substance</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Any matter of defined composition that has discrete existence, whose origin may be biological, mineral or chemical.</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://ncit.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;version=21.02d&amp;ns=ncit&amp;code=C45306&amp;key=n1938058024&amp;b=1&amp;n=null</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1261,20 +1790,41 @@
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>gen:10011</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>macromolecule</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>gen:10007</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1286,14 +1836,31 @@
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>gen:10013</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>service</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -1311,14 +1878,31 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>gen:10014</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">standard </t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1336,20 +1920,41 @@
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>gen:10015</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>metadata standard</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1361,20 +1966,45 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>gen:10016</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>semantic artefact</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>is the overarching name for any set of fixed denotations that are used to describe something with the goal to reduce ambiguity and facilitate machine interoperability. It can range from a simple controlled vocabulary (a simple list of terms) to a complex ontology (formal definitions of terms and their relations semantically expressed in a machine-readable way). This term may also include taxonomies, thesauri, conceptual models or any other kinds of knowledge organization sources.</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1386,20 +2016,41 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>gen:10017</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>technical standard</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1411,20 +2062,41 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>gen:10018</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>conceptual model</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1436,20 +2108,41 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>gen:10019</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>guideline</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1461,20 +2154,41 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>gen:10020</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>gen:10014</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1486,22 +2200,51 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>gen:10021</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A description of something observed or derived, minimally consisting of  an ObjectOfInterest and its Property.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/variable</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -1511,22 +2254,51 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>gen:10022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A type of a characteristic of the ObjectOfInterest.</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/property</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -1536,22 +2308,51 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
+          <t>gen:10023</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A Constraint limits the scope of the observation and confines the context to a particular state. It describes properties of the involved entities that are relevant to the particular observation.</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/iadopt/constraint</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -1561,20 +2362,41 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>microorganism</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1586,20 +2408,41 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
+          <t>gen:10025</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>animal</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1611,14 +2454,31 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>disease</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1636,20 +2496,41 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>institution</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1661,20 +2542,41 @@
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
+          <t>gen:10028</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Academic Medical Center - Amsterdam UMC</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -1686,20 +2588,41 @@
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
+          <t>gen:10029</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Amsterdam Health and Technology Institute - AHTI</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -1711,20 +2634,41 @@
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>gen:10030</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Delft University of Technology</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -1736,20 +2680,41 @@
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
+          <t>gen:10031</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Eindhoven University of Technology</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -1761,20 +2726,41 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
+          <t>gen:10032</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Erasmus Centrum voor Zorgbestuur</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -1786,6 +2772,3415 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gen:10033</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Erasmus MC</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>gen:10034</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Erasmus University Rotterdam</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gen:10035</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Expertisecentrum Nederlands</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>gen:10036</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Federal University of Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>gen:10037</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GGD Amsterdam - Public Health Service of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>gen:10038</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GGD Zuid Holland Zuid</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>gen:10039</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GO FAIR Foundation</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>gen:10040</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Hogeschool Leiden - University of Applied Sciences Leiden</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>gen:10041</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Hogeschool van Amsterdam - Amsterdam University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gen:10042</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>IKNL - Netherlands Comprehensive Cancer Organisation</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gen:10043</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Leiden University</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>gen:10044</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Leiden University Medical Center</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>gen:10045</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Maastricht University</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>gen:10046</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Maastricht University Medical Centre</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>gen:10047</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Netherlands Comprehensive Cancer Organisation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>gen:10048</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Netherlands Heart Institute</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>gen:10049</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>NIVEL - Netherlands Institute for Health Services Research</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gen:10050</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NSCR - Netherlands Institute for the Study of Crime and Law Enforcement </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gen:10051</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Public Health Service of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>gen:10052</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Public Procurement Research Centre - PPRC</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>gen:10053</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Radboud University Nijmegen</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>gen:10054</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Radboud University Nijmegen Medical Centre</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>gen:10055</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Reade Research BV</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gen:10056</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RIVM - National Institute for Public Health and the Environment</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>gen:10057</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sanquin</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>gen:10058</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Saxion University of Applied Sciences</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>gen:10059</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>SEO Economisch Onderzoek</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gen:10060</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Spaarne Gasthuis - Spaarne Ziekenhuis</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>gen:10061</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Tilburg University</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>gen:10062</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TNO - Netherlands Organisation for Applied Scientific Research</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>gen:10063</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>University Medical Center Groningen</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gen:10064</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>University Medical Center Utrecht</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>gen:10065</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>University of Amsterdam</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>gen:10066</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>University of Groningen</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>gen:10067</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>University of Humanistic Studies</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gen:10068</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>University of Twente</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>gen:10069</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Utrecht University</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>gen:10070</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Veiligheids- en Gezondheidsregio Gelderland-Midden</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>gen:10071</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VU Amsterdam</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>gen:10072</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VU University Medical Center</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>gen:10073</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Wageningen University &amp; Research</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>gen:10074</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ZonMw - Netherlands Organisation for Health Research and Development</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>gen:10027, gen:10102</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>contributor type</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gen:10076</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>data collector</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>gen:10077</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>data manager</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>gen:10078</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>data curator</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>gen:10079</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>sponsor</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>gen:10080</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>distributor</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gen:10081</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>project leader</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>gen:10082</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>project manager</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>gen:10083</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>project member</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gen:10084</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>reseacher</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gen:10085</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>editor</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>gen:10086</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rights holder</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>gen:10087</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>supervisor</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>gen:10088</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>work package leader</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>gen:10089</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>contact person</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>https://schema.datacite.org/meta/kernel-4.4/doc/DataCite-MetadataKernel_v4.4.pdf</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>gen:10075</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gen:10090</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>bacterium</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Unicellular, prokaryotic organisms that reproduce by cell division and usually have cell walls; can be shaped like spheres, rods or spirals and can be found in virtually any environment.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14187</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gen:10091</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>prion</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C28176</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/NCIT_C28176</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>gen:10092</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>virus</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>An infectious agent which consists of two parts, genetic material and a protein coat. These organisms lack independent metabolism, and they must infect the cells of other types of organisms to reproduce. Most viruses are capable of passing through fine filters that retain bacteria, and are not visible through a light microscope.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C14283</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gen:10093</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>fungus</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>gen:10094</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>gen:10095</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>human disease</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>gen:10096</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>animal disease</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>gen:10097</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>plant disease</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>gen:10026</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>gen:10098</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>plant</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>gen:10008</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>generic answer options</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>gen:10100</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gen:10101</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>gen:10102</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>funder institution</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>gen:10027</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>gen:10103</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>gen:10099</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>gen:10104</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>protozoa</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>gen:10024</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,12 +1006,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>gen:TestTerm1</t>
+          <t>gen:TestTerm12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TestTerm1</t>
+          <t>TestTerm12</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1036,881 +1036,6 @@
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>gen:</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,10 +429,14 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/zonmw/generic</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr"/>
+          <t>http://purl.org/m4m19/subjects</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
@@ -453,19 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>gen</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://purl.org/zonmw/generic/</t>
-        </is>
-      </c>
+          <t>Prefixes for controlled vocabularies, schema and ontologies</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -491,15 +487,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pav</t>
+          <t>nicest-2-subjects</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/pav/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>http://purl.org/m4m19/subjects/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -524,15 +524,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dct</t>
+          <t>skos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://purl.org/dc/terms/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Prefix for SKOS Ontology. This ontology is which our base for defining terms.</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -557,15 +561,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>owl</t>
+          <t>pav</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2002/07/owl#</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Prefix for Provenance, Authoring and Versioning Ontology which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -590,15 +598,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>xsd</t>
+          <t>dct</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -618,19 +630,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>iop</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/iadopt/</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -651,15 +655,19 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>skos:prefLabel</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZonMW Generic Vocabulary</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>NICEST-2 controlled vocabulary of subjects</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -680,15 +688,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZonMW Generic Vocabulary</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>Subjects ...</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -709,15 +721,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Controlled vocabulary of generic terms used in ZonMV project content metadata templates</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -738,15 +754,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -767,15 +787,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>pav:version</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-7160-5942</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -796,15 +820,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:contributor</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0002-9381-9693 </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -825,15 +853,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://spdx.org/licenses/CC0-1.0 </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -854,14 +886,10 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pav:version</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -883,23 +911,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-07-09T11:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -912,16 +976,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>nicest-2-subjects:TestTerm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021-08-13T22:00:00+00:00</t>
+          <t>TestTerm</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Some test term</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -938,104 +1006,6 @@
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>gen:TestTerm12</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>TestTerm12</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Some test term</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects</t>
+          <t>http://purl.org/m4m19/variables</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -453,6 +453,13 @@
       <c r="Q1" t="inlineStr"/>
       <c r="R1" t="inlineStr"/>
       <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr"/>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr"/>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +485,13 @@
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -487,12 +501,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nicest-2-subjects</t>
+          <t>nicest-2-variables</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m19/subjects/</t>
+          <t>http://purl.org/m4m19/variables/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,6 +529,13 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -552,6 +573,13 @@
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -589,6 +617,13 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,16 +661,35 @@
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>The I-ADOPT Framework is an ontology designed to facilitate interoperability between existing variable description models.</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -651,24 +705,35 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NICEST-2 controlled vocabulary of subjects</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -684,24 +749,35 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Subjects ...</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -717,23 +793,22 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -750,21 +825,28 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>NICEST-2 controlled vocabulary of variables</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -783,21 +865,28 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pav:version</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>Variables ...</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -816,21 +905,28 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pav:createdOn</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>https://orcid.org/0000-0002-9381-9693</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>An ORCID ID of the vocabulary creator, repeat this row as needed.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -849,21 +945,28 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>pav:lastUpdatedOn</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021-11-12T12:00+02:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date of the last vocabulary update</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -882,15 +985,30 @@
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
+          <t>pav:version</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -907,63 +1025,38 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>pav:createdOn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>2021-11-12T12:00+02:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -972,24 +1065,31 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>nicest-2-subjects:TestTerm</t>
+          <t>pav:lastUpdatedOn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TestTerm</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Some test term</t>
-        </is>
-      </c>
+          <t>2021-11-12T12:00+02:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Date of the last vocabulary update</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1005,6 +1105,881 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>skos:prefLabel@en</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:testvariable</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>test variable</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>This is a variable term used for setting up sheet2rdf workflow.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>nicest-2-variables:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,20 +1240,24 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>nicest-2-variables:testvariable</t>
+          <t>nicest-2-variables:10000</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>test variable</t>
+          <t>discharge</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>This is a variable term used for setting up sheet2rdf workflow.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>liquid water which drains from land</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>streamflow, runoff</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1280,10 +1284,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>nicest-2-variables:10001</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>aerosol optical thickness</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1312,10 +1320,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
+          <t>nicest-2-variables:10002</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>fine mode optical thickness</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1344,10 +1356,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
+          <t>nicest-2-variables:10003</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>coarse mode optical thickness</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1376,10 +1392,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>nicest-2-variables:10004</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>precipitation</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1408,11 +1428,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>nicest-2-variables:10005</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>relative humidity</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>indicates a present state of absolute humidity relative to a maximum humidity given the same temperature</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1440,10 +1468,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>nicest-2-variables:10006</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>global radiation</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1472,10 +1504,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>nicest-2-variables:10007</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>upper-air temperature</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1504,11 +1540,19 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+          <t>nicest-2-variables:10008</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>zonal/eastward wind</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>zonal wind (positive in a eastward direction)</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1536,11 +1580,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
+          <t>nicest-2-variables:10009</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>meridional/northward wind</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>northward component of the near surface wind</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1568,10 +1620,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>nicest-2-variables:10010</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>vertical velocity/wind</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1600,11 +1656,19 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
+          <t>nicest-2-variables:10011</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>sea ice thickness</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>actual (floe) thickness of sea ice</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -1632,10 +1696,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
+          <t>nicest-2-variables:10012</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cloud fraction</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
@@ -1664,10 +1732,14 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>nicest-2-variables:10013</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ice fraction</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
@@ -1696,10 +1768,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
+          <t>nicest-2-variables:10014</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>atmosphere mass content of cloud liquid water</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -1728,10 +1804,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
+          <t>nicest-2-variables:10015</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>atmosphere mass content of cloud ice</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
@@ -1760,10 +1840,14 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
+          <t>nicest-2-variables:10016</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ocean mixed layer depth</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
@@ -1792,10 +1876,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>nicest-2-variables:10017</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>number of processor-hour per simulated year</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
@@ -1824,10 +1912,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>nicest-2-variables:10018</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>number of simulated year per wall-clock day</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
@@ -1856,10 +1948,14 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>nicest-2-variables:10019</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>number of computation seconds per model-day</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1888,10 +1984,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
+          <t>nicest-2-variables:10020</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dissolved inorganic carbon</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1917,70 +2017,6 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>nicest-2-variables:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>zonal/eastward wind</t>
+          <t>zonal-eastward wind</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>meridional/northward wind</t>
+          <t>meridional-northward wind</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>vertical velocity/wind</t>
+          <t>vertical velocity-wind</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
